--- a/data/excel/+Milionária.xlsx
+++ b/data/excel/+Milionária.xlsx
@@ -7620,6 +7620,434 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>05/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$145.044,60</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.445,81</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.892,29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1441</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$95,86</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1515</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15273</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11077</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>106193</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$8.534.400,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$62.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>09/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$22.341,44</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.499,85</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$135,60</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>943</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10021</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7730</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>77718</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6.825.240,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$63.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$146.411,48</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$7.655,51</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.574,32</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>887</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$157,20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1494</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11185</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11699</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>86219</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$8.073.414,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$63.500.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$42.926,31</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.896,91</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150,19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9044</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10417</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>75932</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$7.235.796,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$65.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
